--- a/excel_reports/Patrick_Stang.xlsx
+++ b/excel_reports/Patrick_Stang.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11762" uniqueCount="2760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11846" uniqueCount="2770">
   <si>
     <t>Policy Record</t>
   </si>
@@ -7895,6 +7895,27 @@
     <t>3172287901</t>
   </si>
   <si>
+    <t>4365146923</t>
+  </si>
+  <si>
+    <t>Nick</t>
+  </si>
+  <si>
+    <t>No Dental Coverage</t>
+  </si>
+  <si>
+    <t>3172310891</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Seifert</t>
+  </si>
+  <si>
+    <t>3481657702</t>
+  </si>
+  <si>
     <t>3271353631</t>
   </si>
   <si>
@@ -7937,6 +7958,9 @@
     <t>10-29-2022</t>
   </si>
   <si>
+    <t>3794504508</t>
+  </si>
+  <si>
     <t>3172287892</t>
   </si>
   <si>
@@ -8013,6 +8037,12 @@
   </si>
   <si>
     <t>3172297241</t>
+  </si>
+  <si>
+    <t>4322436365</t>
+  </si>
+  <si>
+    <t>4322436398</t>
   </si>
   <si>
     <t>3172297267</t>
@@ -8713,12 +8743,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>2731</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>2732</v>
+        <v>2742</v>
       </c>
       <c r="B2" s="2">
         <v>410</v>
@@ -8726,7 +8756,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>2733</v>
+        <v>2743</v>
       </c>
       <c r="B3" s="2">
         <v>508</v>
@@ -8734,18 +8764,18 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>2734</v>
+        <v>2744</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>2735</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>2736</v>
+        <v>2746</v>
       </c>
       <c r="B5" s="4">
         <f>B3+B4-B2</f>
@@ -8754,7 +8784,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>2737</v>
+        <v>2747</v>
       </c>
       <c r="B6" s="2">
         <v>-30</v>
@@ -8762,30 +8792,30 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>2738</v>
+        <v>2748</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>2739</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>2740</v>
+        <v>2750</v>
       </c>
       <c r="B8" s="4">
         <f>SUM(B5:B7)</f>
         <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>2741</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>2742</v>
+        <v>2752</v>
       </c>
       <c r="B9" s="5">
         <f>MAX(0, B8*150)</f>
@@ -8794,12 +8824,12 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>2743</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>2744</v>
+        <v>2754</v>
       </c>
       <c r="B12" s="2">
         <v>59</v>
@@ -8807,20 +8837,20 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>2745</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>2746</v>
+        <v>2756</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>2759</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>2747</v>
+        <v>2757</v>
       </c>
       <c r="B17" s="5">
         <f>SUM(Core!T:T)</f>
@@ -8829,12 +8859,12 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>2748</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>2749</v>
+        <v>2759</v>
       </c>
       <c r="B20">
         <v>67</v>
@@ -8842,15 +8872,15 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>2750</v>
+        <v>2760</v>
       </c>
       <c r="B21">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>2751</v>
+        <v>2761</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -8858,7 +8888,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>2752</v>
+        <v>2762</v>
       </c>
       <c r="B23">
         <f>-B20+B21+B22</f>
@@ -8867,7 +8897,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="4" t="s">
-        <v>2753</v>
+        <v>2763</v>
       </c>
       <c r="B24" s="5">
         <f>B23*50</f>
@@ -8876,7 +8906,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>2754</v>
+        <v>2764</v>
       </c>
       <c r="B26">
         <v>7</v>
@@ -8884,7 +8914,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>2755</v>
+        <v>2765</v>
       </c>
       <c r="B27">
         <v>8</v>
@@ -8892,7 +8922,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>2756</v>
+        <v>2766</v>
       </c>
       <c r="B28" s="2">
         <v>0</v>
@@ -8900,7 +8930,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>2757</v>
+        <v>2767</v>
       </c>
       <c r="B29">
         <f>-B26+B27+B28</f>
@@ -8909,7 +8939,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="4" t="s">
-        <v>2758</v>
+        <v>2768</v>
       </c>
       <c r="B30" s="5">
         <f>B29*100</f>
@@ -43407,7 +43437,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T164"/>
+  <dimension ref="A1:T176"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -44167,7 +44197,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:14">
       <c r="A34" s="7" t="s">
         <v>2620</v>
       </c>
@@ -44211,7 +44241,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:14">
       <c r="A36" s="7" t="s">
         <v>2622</v>
       </c>
@@ -44255,7 +44285,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:14">
       <c r="A38" s="7" t="s">
         <v>2623</v>
       </c>
@@ -44299,24 +44329,24 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:14">
       <c r="A40" s="7" t="s">
         <v>2624</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>847</v>
+        <v>814</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>848</v>
+        <v>658</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>849</v>
+        <v>815</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>129</v>
+        <v>2625</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>384</v>
+        <v>1856</v>
       </c>
       <c r="G40" s="8" t="s">
         <v>129</v>
@@ -44328,39 +44358,39 @@
         <v>2595</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>2598</v>
+        <v>2626</v>
       </c>
       <c r="K40" t="s">
         <v>2596</v>
       </c>
       <c r="L40" t="s">
-        <v>19</v>
+        <v>158</v>
       </c>
       <c r="M40" t="s">
-        <v>1697</v>
+        <v>1655</v>
       </c>
       <c r="N40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:14">
       <c r="A42" s="7" t="s">
-        <v>2625</v>
+        <v>2627</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>866</v>
+        <v>828</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>867</v>
+        <v>277</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>224</v>
+        <v>829</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>129</v>
+        <v>2628</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>384</v>
+        <v>2629</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>129</v>
@@ -44372,7 +44402,7 @@
         <v>2595</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>2626</v>
+        <v>2615</v>
       </c>
       <c r="K42" t="s">
         <v>2596</v>
@@ -44381,30 +44411,30 @@
         <v>19</v>
       </c>
       <c r="M42" t="s">
-        <v>1108</v>
+        <v>1749</v>
       </c>
       <c r="N42" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" s="7" t="s">
-        <v>2627</v>
+        <v>2630</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>869</v>
+        <v>837</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>294</v>
+        <v>838</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>224</v>
+        <v>839</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>129</v>
+        <v>2628</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>384</v>
+        <v>2629</v>
       </c>
       <c r="G44" s="8" t="s">
         <v>129</v>
@@ -44422,30 +44452,27 @@
         <v>2596</v>
       </c>
       <c r="L44" t="s">
-        <v>141</v>
+        <v>19</v>
       </c>
       <c r="M44" t="s">
-        <v>596</v>
+        <v>2073</v>
       </c>
       <c r="N44" t="s">
-        <v>433</v>
-      </c>
-      <c r="P44" t="s">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" s="7" t="s">
-        <v>2628</v>
+        <v>2631</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>879</v>
+        <v>847</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>880</v>
+        <v>848</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>876</v>
+        <v>849</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>129</v>
@@ -44472,24 +44499,24 @@
         <v>19</v>
       </c>
       <c r="M46" t="s">
-        <v>342</v>
+        <v>1697</v>
       </c>
       <c r="N46" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" s="7" t="s">
-        <v>2629</v>
+        <v>2632</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>876</v>
+        <v>224</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>129</v>
@@ -44507,7 +44534,7 @@
         <v>2595</v>
       </c>
       <c r="J48" s="8" t="s">
-        <v>2598</v>
+        <v>2633</v>
       </c>
       <c r="K48" t="s">
         <v>2596</v>
@@ -44516,24 +44543,24 @@
         <v>19</v>
       </c>
       <c r="M48" t="s">
-        <v>877</v>
+        <v>1108</v>
       </c>
       <c r="N48" t="s">
-        <v>78</v>
+        <v>441</v>
       </c>
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="7" t="s">
-        <v>2630</v>
+        <v>2634</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>2631</v>
+        <v>869</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>985</v>
+        <v>294</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>2632</v>
+        <v>224</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>129</v>
@@ -44557,27 +44584,30 @@
         <v>2596</v>
       </c>
       <c r="L50" t="s">
-        <v>19</v>
+        <v>141</v>
       </c>
       <c r="M50" t="s">
-        <v>1566</v>
+        <v>596</v>
       </c>
       <c r="N50" t="s">
-        <v>336</v>
+        <v>433</v>
+      </c>
+      <c r="P50" t="s">
+        <v>2045</v>
       </c>
     </row>
     <row r="52" spans="1:16">
       <c r="A52" s="7" t="s">
-        <v>2633</v>
+        <v>2635</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>934</v>
+        <v>879</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>935</v>
+        <v>880</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>936</v>
+        <v>876</v>
       </c>
       <c r="E52" s="8" t="s">
         <v>129</v>
@@ -44604,24 +44634,24 @@
         <v>19</v>
       </c>
       <c r="M52" t="s">
-        <v>937</v>
+        <v>342</v>
       </c>
       <c r="N52" t="s">
-        <v>21</v>
+        <v>497</v>
       </c>
     </row>
     <row r="54" spans="1:16">
       <c r="A54" s="7" t="s">
-        <v>2634</v>
+        <v>2636</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>939</v>
+        <v>874</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>940</v>
+        <v>875</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>941</v>
+        <v>876</v>
       </c>
       <c r="E54" s="8" t="s">
         <v>129</v>
@@ -44648,24 +44678,24 @@
         <v>19</v>
       </c>
       <c r="M54" t="s">
-        <v>420</v>
+        <v>877</v>
       </c>
       <c r="N54" t="s">
-        <v>343</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" spans="1:16">
       <c r="A56" s="7" t="s">
-        <v>2635</v>
+        <v>2637</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>943</v>
+        <v>2638</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>944</v>
+        <v>985</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>941</v>
+        <v>2639</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>129</v>
@@ -44683,7 +44713,7 @@
         <v>2595</v>
       </c>
       <c r="J56" s="8" t="s">
-        <v>2617</v>
+        <v>2598</v>
       </c>
       <c r="K56" t="s">
         <v>2596</v>
@@ -44692,7 +44722,7 @@
         <v>19</v>
       </c>
       <c r="M56" t="s">
-        <v>518</v>
+        <v>1566</v>
       </c>
       <c r="N56" t="s">
         <v>336</v>
@@ -44700,16 +44730,16 @@
     </row>
     <row r="58" spans="1:16">
       <c r="A58" s="7" t="s">
-        <v>2636</v>
+        <v>2640</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>947</v>
+        <v>934</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>810</v>
+        <v>935</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>948</v>
+        <v>936</v>
       </c>
       <c r="E58" s="8" t="s">
         <v>129</v>
@@ -44727,7 +44757,7 @@
         <v>2595</v>
       </c>
       <c r="J58" s="8" t="s">
-        <v>2615</v>
+        <v>2598</v>
       </c>
       <c r="K58" t="s">
         <v>2596</v>
@@ -44736,24 +44766,24 @@
         <v>19</v>
       </c>
       <c r="M58" t="s">
-        <v>807</v>
+        <v>937</v>
       </c>
       <c r="N58" t="s">
-        <v>2637</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:16">
       <c r="A60" s="7" t="s">
-        <v>2638</v>
+        <v>2641</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>1024</v>
+        <v>939</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>233</v>
+        <v>940</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>1025</v>
+        <v>941</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>129</v>
@@ -44780,24 +44810,24 @@
         <v>19</v>
       </c>
       <c r="M60" t="s">
-        <v>819</v>
+        <v>420</v>
       </c>
       <c r="N60" t="s">
-        <v>497</v>
+        <v>343</v>
       </c>
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="7" t="s">
-        <v>2639</v>
+        <v>2642</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>1027</v>
+        <v>943</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>66</v>
+        <v>944</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>1025</v>
+        <v>941</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>129</v>
@@ -44815,7 +44845,7 @@
         <v>2595</v>
       </c>
       <c r="J62" s="8" t="s">
-        <v>2598</v>
+        <v>2617</v>
       </c>
       <c r="K62" t="s">
         <v>2596</v>
@@ -44824,24 +44854,24 @@
         <v>19</v>
       </c>
       <c r="M62" t="s">
-        <v>819</v>
+        <v>518</v>
       </c>
       <c r="N62" t="s">
-        <v>497</v>
+        <v>336</v>
       </c>
     </row>
     <row r="64" spans="1:16">
       <c r="A64" s="7" t="s">
-        <v>2640</v>
+        <v>2643</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>1075</v>
+        <v>947</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>281</v>
+        <v>810</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>1076</v>
+        <v>948</v>
       </c>
       <c r="E64" s="8" t="s">
         <v>129</v>
@@ -44859,42 +44889,39 @@
         <v>2595</v>
       </c>
       <c r="J64" s="8" t="s">
-        <v>2598</v>
+        <v>2615</v>
       </c>
       <c r="K64" t="s">
         <v>2596</v>
       </c>
       <c r="L64" t="s">
-        <v>141</v>
+        <v>19</v>
       </c>
       <c r="M64" t="s">
-        <v>652</v>
+        <v>807</v>
       </c>
       <c r="N64" t="s">
-        <v>38</v>
-      </c>
-      <c r="P64" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
       <c r="A66" s="7" t="s">
-        <v>2641</v>
+        <v>2645</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>1078</v>
+        <v>981</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>32</v>
+        <v>538</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>1079</v>
+        <v>982</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>129</v>
+        <v>2628</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>384</v>
+        <v>2629</v>
       </c>
       <c r="G66" s="8" t="s">
         <v>129</v>
@@ -44906,7 +44933,7 @@
         <v>2595</v>
       </c>
       <c r="J66" s="8" t="s">
-        <v>2598</v>
+        <v>2615</v>
       </c>
       <c r="K66" t="s">
         <v>2596</v>
@@ -44915,24 +44942,24 @@
         <v>19</v>
       </c>
       <c r="M66" t="s">
-        <v>826</v>
+        <v>93</v>
       </c>
       <c r="N66" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
       <c r="A68" s="7" t="s">
-        <v>2642</v>
+        <v>2646</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>1092</v>
+        <v>1024</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>1093</v>
+        <v>233</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>1094</v>
+        <v>1025</v>
       </c>
       <c r="E68" s="8" t="s">
         <v>129</v>
@@ -44959,24 +44986,24 @@
         <v>19</v>
       </c>
       <c r="M68" t="s">
-        <v>652</v>
+        <v>819</v>
       </c>
       <c r="N68" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
       <c r="A70" s="7" t="s">
-        <v>2643</v>
+        <v>2647</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>1128</v>
+        <v>1027</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>1129</v>
+        <v>66</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>1130</v>
+        <v>1025</v>
       </c>
       <c r="E70" s="8" t="s">
         <v>129</v>
@@ -44994,7 +45021,7 @@
         <v>2595</v>
       </c>
       <c r="J70" s="8" t="s">
-        <v>2615</v>
+        <v>2598</v>
       </c>
       <c r="K70" t="s">
         <v>2596</v>
@@ -45003,24 +45030,24 @@
         <v>19</v>
       </c>
       <c r="M70" t="s">
-        <v>1344</v>
+        <v>819</v>
       </c>
       <c r="N70" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16">
       <c r="A72" s="7" t="s">
-        <v>2644</v>
+        <v>2648</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>2645</v>
+        <v>1075</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>1729</v>
+        <v>281</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>2646</v>
+        <v>1076</v>
       </c>
       <c r="E72" s="8" t="s">
         <v>129</v>
@@ -45044,27 +45071,30 @@
         <v>2596</v>
       </c>
       <c r="L72" t="s">
-        <v>19</v>
+        <v>141</v>
       </c>
       <c r="M72" t="s">
-        <v>570</v>
+        <v>652</v>
       </c>
       <c r="N72" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14">
+        <v>38</v>
+      </c>
+      <c r="P72" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
       <c r="A74" s="7" t="s">
-        <v>2647</v>
+        <v>2649</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>1167</v>
+        <v>1078</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>1168</v>
+        <v>32</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>1169</v>
+        <v>1079</v>
       </c>
       <c r="E74" s="8" t="s">
         <v>129</v>
@@ -45091,24 +45121,24 @@
         <v>19</v>
       </c>
       <c r="M74" t="s">
-        <v>1272</v>
+        <v>826</v>
       </c>
       <c r="N74" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
       <c r="A76" s="7" t="s">
-        <v>2648</v>
+        <v>2650</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>1188</v>
+        <v>1092</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>662</v>
+        <v>1093</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>1185</v>
+        <v>1094</v>
       </c>
       <c r="E76" s="8" t="s">
         <v>129</v>
@@ -45135,24 +45165,24 @@
         <v>19</v>
       </c>
       <c r="M76" t="s">
-        <v>2649</v>
+        <v>652</v>
       </c>
       <c r="N76" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
       <c r="A78" s="7" t="s">
-        <v>2650</v>
+        <v>2651</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>1190</v>
+        <v>1128</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>220</v>
+        <v>1129</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>1191</v>
+        <v>1130</v>
       </c>
       <c r="E78" s="8" t="s">
         <v>129</v>
@@ -45170,7 +45200,7 @@
         <v>2595</v>
       </c>
       <c r="J78" s="8" t="s">
-        <v>2598</v>
+        <v>2615</v>
       </c>
       <c r="K78" t="s">
         <v>2596</v>
@@ -45179,24 +45209,24 @@
         <v>19</v>
       </c>
       <c r="M78" t="s">
-        <v>755</v>
+        <v>1344</v>
       </c>
       <c r="N78" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16">
       <c r="A80" s="7" t="s">
-        <v>2651</v>
+        <v>2652</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>1205</v>
+        <v>2653</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>227</v>
+        <v>1729</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>228</v>
+        <v>2654</v>
       </c>
       <c r="E80" s="8" t="s">
         <v>129</v>
@@ -45223,24 +45253,24 @@
         <v>19</v>
       </c>
       <c r="M80" t="s">
-        <v>266</v>
+        <v>570</v>
       </c>
       <c r="N80" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="7" t="s">
-        <v>2652</v>
+        <v>2655</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>1212</v>
+        <v>1167</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>1213</v>
+        <v>1168</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>1214</v>
+        <v>1169</v>
       </c>
       <c r="E82" s="8" t="s">
         <v>129</v>
@@ -45258,7 +45288,7 @@
         <v>2595</v>
       </c>
       <c r="J82" s="8" t="s">
-        <v>2615</v>
+        <v>2598</v>
       </c>
       <c r="K82" t="s">
         <v>2596</v>
@@ -45267,24 +45297,24 @@
         <v>19</v>
       </c>
       <c r="M82" t="s">
-        <v>1215</v>
+        <v>1272</v>
       </c>
       <c r="N82" t="s">
-        <v>38</v>
+        <v>343</v>
       </c>
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="7" t="s">
-        <v>2653</v>
+        <v>2656</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>1224</v>
+        <v>1188</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>324</v>
+        <v>662</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>1225</v>
+        <v>1185</v>
       </c>
       <c r="E84" s="8" t="s">
         <v>129</v>
@@ -45301,6 +45331,9 @@
       <c r="I84" s="8" t="s">
         <v>2595</v>
       </c>
+      <c r="J84" s="8" t="s">
+        <v>2598</v>
+      </c>
       <c r="K84" t="s">
         <v>2596</v>
       </c>
@@ -45308,24 +45341,24 @@
         <v>19</v>
       </c>
       <c r="M84" t="s">
-        <v>1226</v>
+        <v>2657</v>
       </c>
       <c r="N84" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="7" t="s">
-        <v>2654</v>
+        <v>2658</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>1233</v>
+        <v>1190</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>568</v>
+        <v>220</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>1234</v>
+        <v>1191</v>
       </c>
       <c r="E86" s="8" t="s">
         <v>129</v>
@@ -45352,24 +45385,24 @@
         <v>19</v>
       </c>
       <c r="M86" t="s">
-        <v>819</v>
+        <v>755</v>
       </c>
       <c r="N86" t="s">
-        <v>497</v>
+        <v>328</v>
       </c>
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="7" t="s">
-        <v>2655</v>
+        <v>2659</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>1236</v>
+        <v>1205</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>1237</v>
+        <v>227</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>1238</v>
+        <v>228</v>
       </c>
       <c r="E88" s="8" t="s">
         <v>129</v>
@@ -45396,7 +45429,7 @@
         <v>19</v>
       </c>
       <c r="M88" t="s">
-        <v>652</v>
+        <v>266</v>
       </c>
       <c r="N88" t="s">
         <v>38</v>
@@ -45404,16 +45437,16 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="7" t="s">
-        <v>2656</v>
+        <v>2660</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>1240</v>
+        <v>1212</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>1241</v>
+        <v>1213</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>1238</v>
+        <v>1214</v>
       </c>
       <c r="E90" s="8" t="s">
         <v>129</v>
@@ -45431,7 +45464,7 @@
         <v>2595</v>
       </c>
       <c r="J90" s="8" t="s">
-        <v>2598</v>
+        <v>2615</v>
       </c>
       <c r="K90" t="s">
         <v>2596</v>
@@ -45440,24 +45473,24 @@
         <v>19</v>
       </c>
       <c r="M90" t="s">
-        <v>1056</v>
+        <v>1215</v>
       </c>
       <c r="N90" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="7" t="s">
-        <v>2657</v>
+        <v>2661</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>1255</v>
+        <v>1224</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>1256</v>
+        <v>324</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>1257</v>
+        <v>1225</v>
       </c>
       <c r="E92" s="8" t="s">
         <v>129</v>
@@ -45474,9 +45507,6 @@
       <c r="I92" s="8" t="s">
         <v>2595</v>
       </c>
-      <c r="J92" s="8" t="s">
-        <v>2598</v>
-      </c>
       <c r="K92" t="s">
         <v>2596</v>
       </c>
@@ -45484,24 +45514,24 @@
         <v>19</v>
       </c>
       <c r="M92" t="s">
-        <v>2658</v>
+        <v>1226</v>
       </c>
       <c r="N92" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="7" t="s">
-        <v>2659</v>
+        <v>2662</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>1260</v>
+        <v>1233</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>355</v>
+        <v>568</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>1261</v>
+        <v>1234</v>
       </c>
       <c r="E94" s="8" t="s">
         <v>129</v>
@@ -45528,24 +45558,24 @@
         <v>19</v>
       </c>
       <c r="M94" t="s">
-        <v>588</v>
+        <v>819</v>
       </c>
       <c r="N94" t="s">
-        <v>441</v>
+        <v>497</v>
       </c>
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="7" t="s">
-        <v>2660</v>
+        <v>2663</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>1310</v>
+        <v>1236</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>202</v>
+        <v>1237</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>203</v>
+        <v>1238</v>
       </c>
       <c r="E96" s="8" t="s">
         <v>129</v>
@@ -45569,10 +45599,10 @@
         <v>2596</v>
       </c>
       <c r="L96" t="s">
-        <v>158</v>
+        <v>19</v>
       </c>
       <c r="M96" t="s">
-        <v>209</v>
+        <v>652</v>
       </c>
       <c r="N96" t="s">
         <v>38</v>
@@ -45580,16 +45610,16 @@
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="7" t="s">
-        <v>2661</v>
+        <v>2664</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>1315</v>
+        <v>1240</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>1316</v>
+        <v>1241</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>1317</v>
+        <v>1238</v>
       </c>
       <c r="E98" s="8" t="s">
         <v>129</v>
@@ -45607,7 +45637,7 @@
         <v>2595</v>
       </c>
       <c r="J98" s="8" t="s">
-        <v>2615</v>
+        <v>2598</v>
       </c>
       <c r="K98" t="s">
         <v>2596</v>
@@ -45616,24 +45646,24 @@
         <v>19</v>
       </c>
       <c r="M98" t="s">
-        <v>1318</v>
+        <v>1056</v>
       </c>
       <c r="N98" t="s">
-        <v>350</v>
+        <v>78</v>
       </c>
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="7" t="s">
-        <v>2662</v>
+        <v>2665</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>1334</v>
+        <v>1255</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>1156</v>
+        <v>1256</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>1335</v>
+        <v>1257</v>
       </c>
       <c r="E100" s="8" t="s">
         <v>129</v>
@@ -45650,6 +45680,9 @@
       <c r="I100" s="8" t="s">
         <v>2595</v>
       </c>
+      <c r="J100" s="8" t="s">
+        <v>2598</v>
+      </c>
       <c r="K100" t="s">
         <v>2596</v>
       </c>
@@ -45657,24 +45690,24 @@
         <v>19</v>
       </c>
       <c r="M100" t="s">
-        <v>2247</v>
+        <v>2666</v>
       </c>
       <c r="N100" t="s">
-        <v>729</v>
+        <v>441</v>
       </c>
     </row>
     <row r="102" spans="1:14">
       <c r="A102" s="7" t="s">
-        <v>2663</v>
+        <v>2667</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>1361</v>
+        <v>1260</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>1362</v>
+        <v>355</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>1363</v>
+        <v>1261</v>
       </c>
       <c r="E102" s="8" t="s">
         <v>129</v>
@@ -45701,24 +45734,24 @@
         <v>19</v>
       </c>
       <c r="M102" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
       <c r="N102" t="s">
-        <v>78</v>
+        <v>441</v>
       </c>
     </row>
     <row r="104" spans="1:14">
       <c r="A104" s="7" t="s">
-        <v>2664</v>
+        <v>2668</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>1405</v>
+        <v>1310</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>1406</v>
+        <v>202</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>1407</v>
+        <v>203</v>
       </c>
       <c r="E104" s="8" t="s">
         <v>129</v>
@@ -45735,31 +45768,34 @@
       <c r="I104" s="8" t="s">
         <v>2595</v>
       </c>
+      <c r="J104" s="8" t="s">
+        <v>2598</v>
+      </c>
       <c r="K104" t="s">
         <v>2596</v>
       </c>
       <c r="L104" t="s">
-        <v>19</v>
+        <v>158</v>
       </c>
       <c r="M104" t="s">
-        <v>575</v>
+        <v>209</v>
       </c>
       <c r="N104" t="s">
-        <v>441</v>
+        <v>38</v>
       </c>
     </row>
     <row r="106" spans="1:14">
       <c r="A106" s="7" t="s">
-        <v>2665</v>
+        <v>2669</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>1425</v>
+        <v>1315</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>161</v>
+        <v>1316</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>1426</v>
+        <v>1317</v>
       </c>
       <c r="E106" s="8" t="s">
         <v>129</v>
@@ -45786,7 +45822,7 @@
         <v>19</v>
       </c>
       <c r="M106" t="s">
-        <v>950</v>
+        <v>1318</v>
       </c>
       <c r="N106" t="s">
         <v>350</v>
@@ -45794,16 +45830,16 @@
     </row>
     <row r="108" spans="1:14">
       <c r="A108" s="7" t="s">
-        <v>2666</v>
+        <v>2670</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>1432</v>
+        <v>1334</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>703</v>
+        <v>1156</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>1433</v>
+        <v>1335</v>
       </c>
       <c r="E108" s="8" t="s">
         <v>129</v>
@@ -45820,9 +45856,6 @@
       <c r="I108" s="8" t="s">
         <v>2595</v>
       </c>
-      <c r="J108" s="8" t="s">
-        <v>2598</v>
-      </c>
       <c r="K108" t="s">
         <v>2596</v>
       </c>
@@ -45830,24 +45863,24 @@
         <v>19</v>
       </c>
       <c r="M108" t="s">
-        <v>388</v>
+        <v>2247</v>
       </c>
       <c r="N108" t="s">
-        <v>822</v>
+        <v>729</v>
       </c>
     </row>
     <row r="110" spans="1:14">
       <c r="A110" s="7" t="s">
-        <v>2667</v>
+        <v>2671</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>1435</v>
+        <v>1361</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>152</v>
+        <v>1362</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>153</v>
+        <v>1363</v>
       </c>
       <c r="E110" s="8" t="s">
         <v>129</v>
@@ -45874,30 +45907,30 @@
         <v>19</v>
       </c>
       <c r="M110" t="s">
-        <v>163</v>
+        <v>601</v>
       </c>
       <c r="N110" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="112" spans="1:14">
       <c r="A112" s="7" t="s">
-        <v>2668</v>
+        <v>2672</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>2669</v>
+        <v>1370</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>58</v>
+        <v>1371</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>153</v>
+        <v>1372</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>129</v>
+        <v>2628</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>384</v>
+        <v>2629</v>
       </c>
       <c r="G112" s="8" t="s">
         <v>129</v>
@@ -45915,10 +45948,10 @@
         <v>2596</v>
       </c>
       <c r="L112" t="s">
-        <v>19</v>
+        <v>158</v>
       </c>
       <c r="M112" t="s">
-        <v>266</v>
+        <v>1460</v>
       </c>
       <c r="N112" t="s">
         <v>38</v>
@@ -45926,22 +45959,22 @@
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="7" t="s">
-        <v>2670</v>
+        <v>2673</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>1474</v>
+        <v>1377</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>438</v>
+        <v>1378</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>1456</v>
+        <v>1372</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>129</v>
+        <v>2628</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>384</v>
+        <v>2629</v>
       </c>
       <c r="G114" s="8" t="s">
         <v>129</v>
@@ -45959,27 +45992,27 @@
         <v>2596</v>
       </c>
       <c r="L114" t="s">
-        <v>19</v>
+        <v>158</v>
       </c>
       <c r="M114" t="s">
-        <v>2671</v>
+        <v>1460</v>
       </c>
       <c r="N114" t="s">
-        <v>336</v>
+        <v>38</v>
       </c>
     </row>
     <row r="116" spans="1:14">
       <c r="A116" s="7" t="s">
-        <v>2672</v>
+        <v>2674</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>1484</v>
+        <v>1405</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>658</v>
+        <v>1406</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>1485</v>
+        <v>1407</v>
       </c>
       <c r="E116" s="8" t="s">
         <v>129</v>
@@ -45996,9 +46029,6 @@
       <c r="I116" s="8" t="s">
         <v>2595</v>
       </c>
-      <c r="J116" s="8" t="s">
-        <v>2615</v>
-      </c>
       <c r="K116" t="s">
         <v>2596</v>
       </c>
@@ -46006,24 +46036,24 @@
         <v>19</v>
       </c>
       <c r="M116" t="s">
-        <v>1392</v>
+        <v>575</v>
       </c>
       <c r="N116" t="s">
-        <v>522</v>
+        <v>441</v>
       </c>
     </row>
     <row r="118" spans="1:14">
       <c r="A118" s="7" t="s">
-        <v>2673</v>
+        <v>2675</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>1513</v>
+        <v>1425</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>97</v>
+        <v>161</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>1511</v>
+        <v>1426</v>
       </c>
       <c r="E118" s="8" t="s">
         <v>129</v>
@@ -46050,24 +46080,24 @@
         <v>19</v>
       </c>
       <c r="M118" t="s">
-        <v>601</v>
+        <v>950</v>
       </c>
       <c r="N118" t="s">
-        <v>78</v>
+        <v>350</v>
       </c>
     </row>
     <row r="120" spans="1:14">
       <c r="A120" s="7" t="s">
-        <v>2674</v>
+        <v>2676</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>1509</v>
+        <v>1432</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>1510</v>
+        <v>703</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>1511</v>
+        <v>1433</v>
       </c>
       <c r="E120" s="8" t="s">
         <v>129</v>
@@ -46085,7 +46115,7 @@
         <v>2595</v>
       </c>
       <c r="J120" s="8" t="s">
-        <v>2615</v>
+        <v>2598</v>
       </c>
       <c r="K120" t="s">
         <v>2596</v>
@@ -46094,24 +46124,24 @@
         <v>19</v>
       </c>
       <c r="M120" t="s">
-        <v>1249</v>
+        <v>388</v>
       </c>
       <c r="N120" t="s">
-        <v>78</v>
+        <v>822</v>
       </c>
     </row>
     <row r="122" spans="1:14">
       <c r="A122" s="7" t="s">
-        <v>2675</v>
+        <v>2677</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>1546</v>
+        <v>1435</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>1547</v>
+        <v>152</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>1548</v>
+        <v>153</v>
       </c>
       <c r="E122" s="8" t="s">
         <v>129</v>
@@ -46138,24 +46168,24 @@
         <v>19</v>
       </c>
       <c r="M122" t="s">
-        <v>2676</v>
+        <v>163</v>
       </c>
       <c r="N122" t="s">
-        <v>336</v>
+        <v>38</v>
       </c>
     </row>
     <row r="124" spans="1:14">
       <c r="A124" s="7" t="s">
-        <v>2677</v>
+        <v>2678</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>1554</v>
+        <v>2679</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>940</v>
+        <v>58</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>1555</v>
+        <v>153</v>
       </c>
       <c r="E124" s="8" t="s">
         <v>129</v>
@@ -46182,24 +46212,24 @@
         <v>19</v>
       </c>
       <c r="M124" t="s">
-        <v>2321</v>
+        <v>266</v>
       </c>
       <c r="N124" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="126" spans="1:14">
       <c r="A126" s="7" t="s">
-        <v>2678</v>
+        <v>2680</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>1563</v>
+        <v>1474</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>1564</v>
+        <v>438</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>1565</v>
+        <v>1456</v>
       </c>
       <c r="E126" s="8" t="s">
         <v>129</v>
@@ -46216,6 +46246,9 @@
       <c r="I126" s="8" t="s">
         <v>2595</v>
       </c>
+      <c r="J126" s="8" t="s">
+        <v>2598</v>
+      </c>
       <c r="K126" t="s">
         <v>2596</v>
       </c>
@@ -46223,7 +46256,7 @@
         <v>19</v>
       </c>
       <c r="M126" t="s">
-        <v>527</v>
+        <v>2681</v>
       </c>
       <c r="N126" t="s">
         <v>336</v>
@@ -46231,16 +46264,16 @@
     </row>
     <row r="128" spans="1:14">
       <c r="A128" s="7" t="s">
-        <v>2679</v>
+        <v>2682</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>1590</v>
+        <v>1484</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>1591</v>
+        <v>658</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>1592</v>
+        <v>1485</v>
       </c>
       <c r="E128" s="8" t="s">
         <v>129</v>
@@ -46258,7 +46291,7 @@
         <v>2595</v>
       </c>
       <c r="J128" s="8" t="s">
-        <v>2598</v>
+        <v>2615</v>
       </c>
       <c r="K128" t="s">
         <v>2596</v>
@@ -46267,24 +46300,24 @@
         <v>19</v>
       </c>
       <c r="M128" t="s">
-        <v>2161</v>
+        <v>1392</v>
       </c>
       <c r="N128" t="s">
-        <v>336</v>
+        <v>522</v>
       </c>
     </row>
     <row r="130" spans="1:14">
       <c r="A130" s="7" t="s">
-        <v>2680</v>
+        <v>2683</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>1601</v>
+        <v>1513</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>242</v>
+        <v>97</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>1602</v>
+        <v>1511</v>
       </c>
       <c r="E130" s="8" t="s">
         <v>129</v>
@@ -46302,7 +46335,7 @@
         <v>2595</v>
       </c>
       <c r="J130" s="8" t="s">
-        <v>2598</v>
+        <v>2615</v>
       </c>
       <c r="K130" t="s">
         <v>2596</v>
@@ -46311,24 +46344,24 @@
         <v>19</v>
       </c>
       <c r="M130" t="s">
-        <v>1145</v>
+        <v>601</v>
       </c>
       <c r="N130" t="s">
-        <v>449</v>
+        <v>78</v>
       </c>
     </row>
     <row r="132" spans="1:14">
       <c r="A132" s="7" t="s">
-        <v>2681</v>
+        <v>2684</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>1630</v>
+        <v>1509</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>538</v>
+        <v>1510</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>1631</v>
+        <v>1511</v>
       </c>
       <c r="E132" s="8" t="s">
         <v>129</v>
@@ -46345,6 +46378,9 @@
       <c r="I132" s="8" t="s">
         <v>2595</v>
       </c>
+      <c r="J132" s="8" t="s">
+        <v>2615</v>
+      </c>
       <c r="K132" t="s">
         <v>2596</v>
       </c>
@@ -46352,24 +46388,24 @@
         <v>19</v>
       </c>
       <c r="M132" t="s">
-        <v>1632</v>
+        <v>1249</v>
       </c>
       <c r="N132" t="s">
-        <v>616</v>
+        <v>78</v>
       </c>
     </row>
     <row r="134" spans="1:14">
       <c r="A134" s="7" t="s">
-        <v>2682</v>
+        <v>2685</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>2683</v>
+        <v>1546</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>1510</v>
+        <v>1547</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>2684</v>
+        <v>1548</v>
       </c>
       <c r="E134" s="8" t="s">
         <v>129</v>
@@ -46387,7 +46423,7 @@
         <v>2595</v>
       </c>
       <c r="J134" s="8" t="s">
-        <v>2615</v>
+        <v>2598</v>
       </c>
       <c r="K134" t="s">
         <v>2596</v>
@@ -46396,24 +46432,24 @@
         <v>19</v>
       </c>
       <c r="M134" t="s">
-        <v>950</v>
+        <v>2686</v>
       </c>
       <c r="N134" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
     </row>
     <row r="136" spans="1:14">
       <c r="A136" s="7" t="s">
-        <v>2685</v>
+        <v>2687</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>1657</v>
+        <v>1554</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>144</v>
+        <v>940</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>1654</v>
+        <v>1555</v>
       </c>
       <c r="E136" s="8" t="s">
         <v>129</v>
@@ -46440,24 +46476,24 @@
         <v>19</v>
       </c>
       <c r="M136" t="s">
-        <v>2352</v>
+        <v>2321</v>
       </c>
       <c r="N136" t="s">
-        <v>2686</v>
+        <v>35</v>
       </c>
     </row>
     <row r="138" spans="1:14">
       <c r="A138" s="7" t="s">
-        <v>2687</v>
+        <v>2688</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>1723</v>
+        <v>1563</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>1724</v>
+        <v>1564</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>1725</v>
+        <v>1565</v>
       </c>
       <c r="E138" s="8" t="s">
         <v>129</v>
@@ -46474,9 +46510,6 @@
       <c r="I138" s="8" t="s">
         <v>2595</v>
       </c>
-      <c r="J138" s="8" t="s">
-        <v>2598</v>
-      </c>
       <c r="K138" t="s">
         <v>2596</v>
       </c>
@@ -46484,24 +46517,24 @@
         <v>19</v>
       </c>
       <c r="M138" t="s">
-        <v>1796</v>
+        <v>527</v>
       </c>
       <c r="N138" t="s">
-        <v>35</v>
+        <v>336</v>
       </c>
     </row>
     <row r="140" spans="1:14">
       <c r="A140" s="7" t="s">
-        <v>2688</v>
+        <v>2689</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>1757</v>
+        <v>1590</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>880</v>
+        <v>1591</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>1758</v>
+        <v>1592</v>
       </c>
       <c r="E140" s="8" t="s">
         <v>129</v>
@@ -46519,7 +46552,7 @@
         <v>2595</v>
       </c>
       <c r="J140" s="8" t="s">
-        <v>2615</v>
+        <v>2598</v>
       </c>
       <c r="K140" t="s">
         <v>2596</v>
@@ -46528,10 +46561,10 @@
         <v>19</v>
       </c>
       <c r="M140" t="s">
-        <v>2689</v>
+        <v>2161</v>
       </c>
       <c r="N140" t="s">
-        <v>433</v>
+        <v>336</v>
       </c>
     </row>
     <row r="142" spans="1:14">
@@ -46539,13 +46572,13 @@
         <v>2690</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>2490</v>
+        <v>1601</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>875</v>
+        <v>242</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>2491</v>
+        <v>1602</v>
       </c>
       <c r="E142" s="8" t="s">
         <v>129</v>
@@ -46572,10 +46605,10 @@
         <v>19</v>
       </c>
       <c r="M142" t="s">
-        <v>1749</v>
+        <v>1145</v>
       </c>
       <c r="N142" t="s">
-        <v>497</v>
+        <v>449</v>
       </c>
     </row>
     <row r="144" spans="1:14">
@@ -46583,13 +46616,13 @@
         <v>2691</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>2692</v>
+        <v>1630</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>2693</v>
+        <v>538</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>1818</v>
+        <v>1631</v>
       </c>
       <c r="E144" s="8" t="s">
         <v>129</v>
@@ -46598,17 +46631,14 @@
         <v>384</v>
       </c>
       <c r="G144" s="8" t="s">
-        <v>2694</v>
+        <v>129</v>
       </c>
       <c r="H144" s="8" t="s">
-        <v>2695</v>
+        <v>384</v>
       </c>
       <c r="I144" s="8" t="s">
         <v>2595</v>
       </c>
-      <c r="J144" s="8" t="s">
-        <v>2598</v>
-      </c>
       <c r="K144" t="s">
         <v>2596</v>
       </c>
@@ -46616,24 +46646,24 @@
         <v>19</v>
       </c>
       <c r="M144" t="s">
-        <v>652</v>
+        <v>1632</v>
       </c>
       <c r="N144" t="s">
-        <v>38</v>
+        <v>616</v>
       </c>
     </row>
     <row r="146" spans="1:14">
       <c r="A146" s="7" t="s">
-        <v>2696</v>
+        <v>2692</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>1816</v>
+        <v>2693</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>1817</v>
+        <v>1510</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>1818</v>
+        <v>2694</v>
       </c>
       <c r="E146" s="8" t="s">
         <v>129</v>
@@ -46651,7 +46681,7 @@
         <v>2595</v>
       </c>
       <c r="J146" s="8" t="s">
-        <v>2598</v>
+        <v>2615</v>
       </c>
       <c r="K146" t="s">
         <v>2596</v>
@@ -46660,24 +46690,24 @@
         <v>19</v>
       </c>
       <c r="M146" t="s">
-        <v>652</v>
+        <v>950</v>
       </c>
       <c r="N146" t="s">
-        <v>38</v>
+        <v>350</v>
       </c>
     </row>
     <row r="148" spans="1:14">
       <c r="A148" s="7" t="s">
-        <v>2697</v>
+        <v>2695</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>1846</v>
+        <v>1657</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>703</v>
+        <v>144</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>1847</v>
+        <v>1654</v>
       </c>
       <c r="E148" s="8" t="s">
         <v>129</v>
@@ -46704,24 +46734,24 @@
         <v>19</v>
       </c>
       <c r="M148" t="s">
-        <v>496</v>
+        <v>2352</v>
       </c>
       <c r="N148" t="s">
-        <v>441</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="150" spans="1:14">
       <c r="A150" s="7" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>1879</v>
+        <v>1723</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>1880</v>
+        <v>1724</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>1881</v>
+        <v>1725</v>
       </c>
       <c r="E150" s="8" t="s">
         <v>129</v>
@@ -46745,27 +46775,27 @@
         <v>2596</v>
       </c>
       <c r="L150" t="s">
-        <v>158</v>
+        <v>19</v>
       </c>
       <c r="M150" t="s">
-        <v>320</v>
+        <v>1796</v>
       </c>
       <c r="N150" t="s">
-        <v>2699</v>
+        <v>35</v>
       </c>
     </row>
     <row r="152" spans="1:14">
       <c r="A152" s="7" t="s">
-        <v>2700</v>
+        <v>2698</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>1894</v>
+        <v>1757</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>1895</v>
+        <v>880</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>1896</v>
+        <v>1758</v>
       </c>
       <c r="E152" s="8" t="s">
         <v>129</v>
@@ -46783,7 +46813,7 @@
         <v>2595</v>
       </c>
       <c r="J152" s="8" t="s">
-        <v>2598</v>
+        <v>2615</v>
       </c>
       <c r="K152" t="s">
         <v>2596</v>
@@ -46792,24 +46822,24 @@
         <v>19</v>
       </c>
       <c r="M152" t="s">
-        <v>2701</v>
+        <v>2699</v>
       </c>
       <c r="N152" t="s">
-        <v>336</v>
+        <v>433</v>
       </c>
     </row>
     <row r="154" spans="1:14">
       <c r="A154" s="7" t="s">
-        <v>2702</v>
+        <v>2700</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>1921</v>
+        <v>2490</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>676</v>
+        <v>875</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>1922</v>
+        <v>2491</v>
       </c>
       <c r="E154" s="8" t="s">
         <v>129</v>
@@ -46826,6 +46856,9 @@
       <c r="I154" s="8" t="s">
         <v>2595</v>
       </c>
+      <c r="J154" s="8" t="s">
+        <v>2598</v>
+      </c>
       <c r="K154" t="s">
         <v>2596</v>
       </c>
@@ -46833,36 +46866,36 @@
         <v>19</v>
       </c>
       <c r="M154" t="s">
-        <v>729</v>
+        <v>1749</v>
       </c>
       <c r="N154" t="s">
-        <v>336</v>
+        <v>497</v>
       </c>
     </row>
     <row r="156" spans="1:14">
       <c r="A156" s="7" t="s">
+        <v>2701</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>2702</v>
+      </c>
+      <c r="C156" s="8" t="s">
         <v>2703</v>
       </c>
-      <c r="B156" s="7" t="s">
+      <c r="D156" s="8" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E156" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F156" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="G156" s="8" t="s">
         <v>2704</v>
       </c>
-      <c r="C156" s="8" t="s">
-        <v>966</v>
-      </c>
-      <c r="D156" s="8" t="s">
+      <c r="H156" s="8" t="s">
         <v>2705</v>
-      </c>
-      <c r="E156" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="F156" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="G156" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="H156" s="8" t="s">
-        <v>384</v>
       </c>
       <c r="I156" s="8" t="s">
         <v>2595</v>
@@ -46877,10 +46910,10 @@
         <v>19</v>
       </c>
       <c r="M156" t="s">
-        <v>2658</v>
+        <v>652</v>
       </c>
       <c r="N156" t="s">
-        <v>441</v>
+        <v>38</v>
       </c>
     </row>
     <row r="158" spans="1:14">
@@ -46888,13 +46921,13 @@
         <v>2706</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>1958</v>
+        <v>1816</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>722</v>
+        <v>1817</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>1959</v>
+        <v>1818</v>
       </c>
       <c r="E158" s="8" t="s">
         <v>129</v>
@@ -46921,24 +46954,24 @@
         <v>19</v>
       </c>
       <c r="M158" t="s">
-        <v>2707</v>
+        <v>652</v>
       </c>
       <c r="N158" t="s">
-        <v>2708</v>
+        <v>38</v>
       </c>
     </row>
     <row r="160" spans="1:14">
       <c r="A160" s="7" t="s">
-        <v>2709</v>
+        <v>2707</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>1974</v>
+        <v>1846</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>1975</v>
+        <v>703</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>1976</v>
+        <v>1847</v>
       </c>
       <c r="E160" s="8" t="s">
         <v>129</v>
@@ -46955,6 +46988,9 @@
       <c r="I160" s="8" t="s">
         <v>2595</v>
       </c>
+      <c r="J160" s="8" t="s">
+        <v>2598</v>
+      </c>
       <c r="K160" t="s">
         <v>2596</v>
       </c>
@@ -46962,24 +46998,24 @@
         <v>19</v>
       </c>
       <c r="M160" t="s">
-        <v>2710</v>
+        <v>496</v>
       </c>
       <c r="N160" t="s">
-        <v>497</v>
+        <v>441</v>
       </c>
     </row>
     <row r="162" spans="1:14">
       <c r="A162" s="7" t="s">
-        <v>2711</v>
+        <v>2708</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>1984</v>
+        <v>1879</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>262</v>
+        <v>1880</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>332</v>
+        <v>1881</v>
       </c>
       <c r="E162" s="8" t="s">
         <v>129</v>
@@ -47003,27 +47039,27 @@
         <v>2596</v>
       </c>
       <c r="L162" t="s">
-        <v>19</v>
+        <v>158</v>
       </c>
       <c r="M162" t="s">
-        <v>457</v>
+        <v>320</v>
       </c>
       <c r="N162" t="s">
-        <v>2712</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="164" spans="1:14">
       <c r="A164" s="7" t="s">
-        <v>2713</v>
+        <v>2710</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>2013</v>
+        <v>1894</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>2014</v>
+        <v>1895</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>2015</v>
+        <v>1896</v>
       </c>
       <c r="E164" s="8" t="s">
         <v>129</v>
@@ -47050,9 +47086,267 @@
         <v>19</v>
       </c>
       <c r="M164" t="s">
+        <v>2711</v>
+      </c>
+      <c r="N164" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14">
+      <c r="A166" s="7" t="s">
+        <v>2712</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>1921</v>
+      </c>
+      <c r="C166" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="D166" s="8" t="s">
+        <v>1922</v>
+      </c>
+      <c r="E166" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F166" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="G166" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="H166" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="I166" s="8" t="s">
+        <v>2595</v>
+      </c>
+      <c r="K166" t="s">
+        <v>2596</v>
+      </c>
+      <c r="L166" t="s">
+        <v>19</v>
+      </c>
+      <c r="M166" t="s">
+        <v>729</v>
+      </c>
+      <c r="N166" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14">
+      <c r="A168" s="7" t="s">
+        <v>2713</v>
+      </c>
+      <c r="B168" s="7" t="s">
         <v>2714</v>
       </c>
-      <c r="N164" t="s">
+      <c r="C168" s="8" t="s">
+        <v>966</v>
+      </c>
+      <c r="D168" s="8" t="s">
+        <v>2715</v>
+      </c>
+      <c r="E168" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F168" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="G168" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="H168" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="I168" s="8" t="s">
+        <v>2595</v>
+      </c>
+      <c r="J168" s="8" t="s">
+        <v>2598</v>
+      </c>
+      <c r="K168" t="s">
+        <v>2596</v>
+      </c>
+      <c r="L168" t="s">
+        <v>19</v>
+      </c>
+      <c r="M168" t="s">
+        <v>2666</v>
+      </c>
+      <c r="N168" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14">
+      <c r="A170" s="7" t="s">
+        <v>2716</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>1958</v>
+      </c>
+      <c r="C170" s="8" t="s">
+        <v>722</v>
+      </c>
+      <c r="D170" s="8" t="s">
+        <v>1959</v>
+      </c>
+      <c r="E170" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F170" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="G170" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="H170" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="I170" s="8" t="s">
+        <v>2595</v>
+      </c>
+      <c r="J170" s="8" t="s">
+        <v>2598</v>
+      </c>
+      <c r="K170" t="s">
+        <v>2596</v>
+      </c>
+      <c r="L170" t="s">
+        <v>19</v>
+      </c>
+      <c r="M170" t="s">
+        <v>2717</v>
+      </c>
+      <c r="N170" t="s">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14">
+      <c r="A172" s="7" t="s">
+        <v>2719</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>1974</v>
+      </c>
+      <c r="C172" s="8" t="s">
+        <v>1975</v>
+      </c>
+      <c r="D172" s="8" t="s">
+        <v>1976</v>
+      </c>
+      <c r="E172" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F172" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="G172" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="H172" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="I172" s="8" t="s">
+        <v>2595</v>
+      </c>
+      <c r="K172" t="s">
+        <v>2596</v>
+      </c>
+      <c r="L172" t="s">
+        <v>19</v>
+      </c>
+      <c r="M172" t="s">
+        <v>2720</v>
+      </c>
+      <c r="N172" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14">
+      <c r="A174" s="7" t="s">
+        <v>2721</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>1984</v>
+      </c>
+      <c r="C174" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D174" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="E174" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F174" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="G174" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="H174" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="I174" s="8" t="s">
+        <v>2595</v>
+      </c>
+      <c r="J174" s="8" t="s">
+        <v>2598</v>
+      </c>
+      <c r="K174" t="s">
+        <v>2596</v>
+      </c>
+      <c r="L174" t="s">
+        <v>19</v>
+      </c>
+      <c r="M174" t="s">
+        <v>457</v>
+      </c>
+      <c r="N174" t="s">
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14">
+      <c r="A176" s="7" t="s">
+        <v>2723</v>
+      </c>
+      <c r="B176" s="7" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C176" s="8" t="s">
+        <v>2014</v>
+      </c>
+      <c r="D176" s="8" t="s">
+        <v>2015</v>
+      </c>
+      <c r="E176" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F176" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="G176" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="H176" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="I176" s="8" t="s">
+        <v>2595</v>
+      </c>
+      <c r="J176" s="8" t="s">
+        <v>2598</v>
+      </c>
+      <c r="K176" t="s">
+        <v>2596</v>
+      </c>
+      <c r="L176" t="s">
+        <v>19</v>
+      </c>
+      <c r="M176" t="s">
+        <v>2724</v>
+      </c>
+      <c r="N176" t="s">
         <v>433</v>
       </c>
     </row>
@@ -47222,6 +47516,18 @@
     <hyperlink ref="B162" r:id="rId162"/>
     <hyperlink ref="A164" r:id="rId163"/>
     <hyperlink ref="B164" r:id="rId164"/>
+    <hyperlink ref="A166" r:id="rId165"/>
+    <hyperlink ref="B166" r:id="rId166"/>
+    <hyperlink ref="A168" r:id="rId167"/>
+    <hyperlink ref="B168" r:id="rId168"/>
+    <hyperlink ref="A170" r:id="rId169"/>
+    <hyperlink ref="B170" r:id="rId170"/>
+    <hyperlink ref="A172" r:id="rId171"/>
+    <hyperlink ref="B172" r:id="rId172"/>
+    <hyperlink ref="A174" r:id="rId173"/>
+    <hyperlink ref="B174" r:id="rId174"/>
+    <hyperlink ref="A176" r:id="rId175"/>
+    <hyperlink ref="B176" r:id="rId176"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -47302,16 +47608,16 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="7" t="s">
-        <v>2715</v>
+        <v>2725</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>2716</v>
+        <v>2726</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>703</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>2717</v>
+        <v>2727</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>129</v>
@@ -47326,10 +47632,10 @@
         <v>384</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>2718</v>
+        <v>2728</v>
       </c>
       <c r="K2" t="s">
-        <v>2719</v>
+        <v>2729</v>
       </c>
       <c r="L2" t="s">
         <v>19</v>
@@ -47343,7 +47649,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="7" t="s">
-        <v>2720</v>
+        <v>2730</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>2101</v>
@@ -47367,10 +47673,10 @@
         <v>384</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>2718</v>
+        <v>2728</v>
       </c>
       <c r="K4" t="s">
-        <v>2719</v>
+        <v>2729</v>
       </c>
       <c r="L4" t="s">
         <v>19</v>
@@ -47384,7 +47690,7 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="7" t="s">
-        <v>2721</v>
+        <v>2731</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>2197</v>
@@ -47408,10 +47714,10 @@
         <v>384</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>2718</v>
+        <v>2728</v>
       </c>
       <c r="K6" t="s">
-        <v>2719</v>
+        <v>2729</v>
       </c>
       <c r="L6" t="s">
         <v>19</v>
@@ -47425,7 +47731,7 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="7" t="s">
-        <v>2722</v>
+        <v>2732</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>2258</v>
@@ -47449,10 +47755,10 @@
         <v>384</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>2718</v>
+        <v>2728</v>
       </c>
       <c r="K8" t="s">
-        <v>2719</v>
+        <v>2729</v>
       </c>
       <c r="L8" t="s">
         <v>2184</v>
@@ -47464,12 +47770,12 @@
         <v>497</v>
       </c>
       <c r="P8" t="s">
-        <v>2723</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="7" t="s">
-        <v>2724</v>
+        <v>2734</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>2273</v>
@@ -47493,10 +47799,10 @@
         <v>384</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>2718</v>
+        <v>2728</v>
       </c>
       <c r="K10" t="s">
-        <v>2719</v>
+        <v>2729</v>
       </c>
       <c r="L10" t="s">
         <v>19</v>
@@ -47510,7 +47816,7 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="7" t="s">
-        <v>2725</v>
+        <v>2735</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>2270</v>
@@ -47534,10 +47840,10 @@
         <v>384</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>2718</v>
+        <v>2728</v>
       </c>
       <c r="K12" t="s">
-        <v>2719</v>
+        <v>2729</v>
       </c>
       <c r="L12" t="s">
         <v>19</v>
@@ -47551,7 +47857,7 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="7" t="s">
-        <v>2726</v>
+        <v>2736</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>2427</v>
@@ -47575,16 +47881,16 @@
         <v>384</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>2718</v>
+        <v>2728</v>
       </c>
       <c r="K14" t="s">
-        <v>2719</v>
+        <v>2729</v>
       </c>
       <c r="L14" t="s">
         <v>19</v>
       </c>
       <c r="M14" t="s">
-        <v>2723</v>
+        <v>2733</v>
       </c>
       <c r="N14" t="s">
         <v>497</v>
@@ -47592,7 +47898,7 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="7" t="s">
-        <v>2727</v>
+        <v>2737</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>2431</v>
@@ -47616,16 +47922,16 @@
         <v>384</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>2718</v>
+        <v>2728</v>
       </c>
       <c r="K16" t="s">
-        <v>2719</v>
+        <v>2729</v>
       </c>
       <c r="L16" t="s">
         <v>19</v>
       </c>
       <c r="M16" t="s">
-        <v>2728</v>
+        <v>2738</v>
       </c>
       <c r="N16" t="s">
         <v>336</v>
@@ -47633,7 +47939,7 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="7" t="s">
-        <v>2729</v>
+        <v>2739</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>2525</v>
@@ -47657,10 +47963,10 @@
         <v>384</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>2718</v>
+        <v>2728</v>
       </c>
       <c r="K18" t="s">
-        <v>2719</v>
+        <v>2729</v>
       </c>
       <c r="L18" t="s">
         <v>19</v>
@@ -47674,7 +47980,7 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="7" t="s">
-        <v>2730</v>
+        <v>2740</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>2569</v>
@@ -47698,10 +48004,10 @@
         <v>384</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>2718</v>
+        <v>2728</v>
       </c>
       <c r="K20" t="s">
-        <v>2719</v>
+        <v>2729</v>
       </c>
       <c r="L20" t="s">
         <v>2184</v>

--- a/excel_reports/Patrick_Stang.xlsx
+++ b/excel_reports/Patrick_Stang.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11823" uniqueCount="2768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11826" uniqueCount="2771">
   <si>
     <t>Policy Record</t>
   </si>
@@ -8249,10 +8249,13 @@
     <t>Current Month Active</t>
   </si>
   <si>
-    <t>Lifetime Cancels (12+ Month Duration)</t>
-  </si>
-  <si>
-    <t>(These plans are added back into Current Month Total Active)</t>
+    <t>Past Lifetime Cancels (12+ Month Duration)</t>
+  </si>
+  <si>
+    <t>Current Lifetime Cancels (12+ Month Duration)</t>
+  </si>
+  <si>
+    <t>(Any new long-term cancels are added back into Current Month Total Active)</t>
   </si>
   <si>
     <t>Net New Active</t>
@@ -8294,13 +8297,16 @@
     <t>Ancillary Plans</t>
   </si>
   <si>
-    <t>Previous Active DVH Plans:</t>
+    <t>Past Active DVH Plans:</t>
   </si>
   <si>
     <t>Current Active DVH Plans:</t>
   </si>
   <si>
-    <t>DVH Lifetime Cancels (12+ Month Duration)</t>
+    <t>Previous DVH Lifetime Cancels (12+ Month Duration)</t>
+  </si>
+  <si>
+    <t>Current DVH Lifetime Cancels (12+ Month Duration)</t>
   </si>
   <si>
     <t>Net New DVH Plans:</t>
@@ -8315,7 +8321,10 @@
     <t>Current Active Copay Plans:</t>
   </si>
   <si>
-    <t>Copay Lifetime Cancels (12+ Month Duration)</t>
+    <t>Past Copay Lifetime Cancels (12+ Month Duration)</t>
+  </si>
+  <si>
+    <t>Current Copay Lifetime Cancels (12+ Month Duration)</t>
   </si>
   <si>
     <t>Net New Copay Plans:</t>
@@ -8725,7 +8734,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8761,27 +8770,27 @@
         <v>2742</v>
       </c>
       <c r="B4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>2743</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>2744</v>
       </c>
-      <c r="B5" s="4">
-        <f>B3+B4-B2</f>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="4" t="s">
+        <v>2745</v>
+      </c>
+      <c r="B6" s="4">
+        <f>-B2+B3-B4+B5</f>
         <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
-        <v>2745</v>
-      </c>
-      <c r="B6" s="2">
-        <v>-30</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -8789,62 +8798,70 @@
         <v>2746</v>
       </c>
       <c r="B7" s="2">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>2747</v>
+      </c>
+      <c r="B8" s="2">
         <v>0</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>2747</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>2748</v>
-      </c>
-      <c r="B8" s="4">
-        <f>SUM(B5:B7)</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>2749</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
+        <v>2749</v>
+      </c>
+      <c r="B9" s="4">
+        <f>SUM(B6:B8)</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>2750</v>
       </c>
-      <c r="B9" s="5">
-        <f>MAX(0, B8*150)</f>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="4" t="s">
+        <v>2751</v>
+      </c>
+      <c r="B10" s="5">
+        <f>MAX(0, B9*150)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>2751</v>
-      </c>
-    </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>2752</v>
       </c>
-      <c r="B12" s="2">
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>2753</v>
+      </c>
+      <c r="B13" s="2">
         <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>2753</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>2754</v>
+        <v>2755</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>2767</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>2755</v>
+        <v>2756</v>
       </c>
       <c r="B17" s="5">
         <f>SUM(Core!T:T)</f>
@@ -8853,12 +8870,12 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>2756</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>2757</v>
+        <v>2758</v>
       </c>
       <c r="B20">
         <v>77</v>
@@ -8866,7 +8883,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>2758</v>
+        <v>2759</v>
       </c>
       <c r="B21">
         <v>78</v>
@@ -8874,7 +8891,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>2759</v>
+        <v>2760</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -8882,25 +8899,33 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>2760</v>
-      </c>
-      <c r="B23">
-        <f>-B20+B21+B22</f>
+        <v>2761</v>
+      </c>
+      <c r="B23" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="4" t="s">
-        <v>2761</v>
-      </c>
-      <c r="B24" s="5">
-        <f>B23*50</f>
+      <c r="A24" s="2" t="s">
+        <v>2762</v>
+      </c>
+      <c r="B24">
+        <f>-B20+B21-B22+B23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="4" t="s">
+        <v>2763</v>
+      </c>
+      <c r="B25" s="5">
+        <f>B24*50</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>2762</v>
+        <v>2764</v>
       </c>
       <c r="B26">
         <v>8</v>
@@ -8908,7 +8933,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>2763</v>
+        <v>2765</v>
       </c>
       <c r="B27">
         <v>8</v>
@@ -8916,7 +8941,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>2764</v>
+        <v>2766</v>
       </c>
       <c r="B28" s="2">
         <v>0</v>
@@ -8924,19 +8949,27 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>2765</v>
-      </c>
-      <c r="B29">
-        <f>-B26+B27+B28</f>
+        <v>2767</v>
+      </c>
+      <c r="B29" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="4" t="s">
-        <v>2766</v>
-      </c>
-      <c r="B30" s="5">
-        <f>B29*100</f>
+      <c r="A30" s="2" t="s">
+        <v>2768</v>
+      </c>
+      <c r="B30">
+        <f>-B26+B27-B28+B29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="4" t="s">
+        <v>2769</v>
+      </c>
+      <c r="B31" s="5">
+        <f>B30*100</f>
         <v>0</v>
       </c>
     </row>
@@ -12107,7 +12140,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="13.7109375" style="8" customWidth="1"/>
+    <col min="1" max="2" width="16.7109375" style="8" customWidth="1"/>
     <col min="3" max="9" width="9.7109375" style="8" customWidth="1"/>
     <col min="10" max="10" width="8.7109375" style="8" customWidth="1"/>
     <col min="11" max="16" width="11.7109375" customWidth="1"/>
@@ -43637,7 +43670,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="13.7109375" style="8" customWidth="1"/>
+    <col min="1" max="2" width="16.7109375" style="8" customWidth="1"/>
     <col min="3" max="9" width="9.7109375" style="8" customWidth="1"/>
     <col min="10" max="10" width="8.7109375" style="8" customWidth="1"/>
     <col min="11" max="16" width="11.7109375" customWidth="1"/>
@@ -47459,7 +47492,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="13.7109375" style="8" customWidth="1"/>
+    <col min="1" max="2" width="16.7109375" style="8" customWidth="1"/>
     <col min="3" max="9" width="9.7109375" style="8" customWidth="1"/>
     <col min="10" max="10" width="8.7109375" style="8" customWidth="1"/>
     <col min="11" max="16" width="11.7109375" customWidth="1"/>
